--- a/test_1/students_scores.xlsx
+++ b/test_1/students_scores.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaSanXia\PythonProgramming\Test\exp_1\test_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD2BEA-32F8-4813-9B5E-8568CAC2527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC29707-CD23-40B0-A81F-7E05999C3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19440" yWindow="1716" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="1800" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,42 +37,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高等数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C语言程序设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java面向对象设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python程序设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程导论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王婷婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +131,78 @@
   <si>
     <t>gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>大数据1班</t>
+  </si>
+  <si>
+    <t>大数据1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据2班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据2班</t>
   </si>
 </sst>
 </file>
@@ -514,219 +543,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571705B3-7B1D-469A-A2F4-8154B324C286}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -737,11 +766,237 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A221A94F-2B0E-41D9-9867-BD1E9C192AE6}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -759,74 +1014,26 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>201101</v>
-      </c>
-      <c r="F2" s="3">
-        <v>67</v>
-      </c>
-      <c r="G2" s="3">
-        <v>99</v>
-      </c>
-      <c r="H2" s="3">
-        <v>87</v>
-      </c>
-      <c r="I2" s="3">
-        <v>73</v>
-      </c>
-      <c r="J2" s="3">
-        <v>75</v>
-      </c>
-      <c r="K2" s="3">
-        <v>46</v>
-      </c>
-      <c r="L2" s="1">
-        <f>SUM(F2:K2)</f>
-        <v>447</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -836,42 +1043,21 @@
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>201102</v>
-      </c>
-      <c r="F3" s="3">
-        <v>97</v>
-      </c>
-      <c r="G3" s="3">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3">
-        <v>88</v>
-      </c>
-      <c r="I3" s="3">
-        <v>48</v>
-      </c>
-      <c r="J3" s="3">
-        <v>99</v>
-      </c>
-      <c r="K3" s="3">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L19" si="0">SUM(F3:K3)</f>
-        <v>469</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -881,42 +1067,21 @@
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>201103</v>
-      </c>
-      <c r="F4" s="3">
-        <v>70</v>
-      </c>
-      <c r="G4" s="3">
-        <v>94</v>
-      </c>
-      <c r="H4" s="3">
-        <v>81</v>
-      </c>
-      <c r="I4" s="3">
-        <v>47</v>
-      </c>
-      <c r="J4" s="3">
-        <v>78</v>
-      </c>
-      <c r="K4" s="3">
-        <v>91</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>461</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -926,42 +1091,21 @@
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>201104</v>
-      </c>
-      <c r="F5" s="3">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3">
-        <v>71</v>
-      </c>
-      <c r="H5" s="3">
-        <v>85</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45</v>
-      </c>
-      <c r="J5" s="3">
-        <v>66</v>
-      </c>
-      <c r="K5" s="3">
-        <v>70</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -971,42 +1115,21 @@
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>201105</v>
-      </c>
-      <c r="F6" s="3">
-        <v>95</v>
-      </c>
-      <c r="G6" s="3">
-        <v>56</v>
-      </c>
-      <c r="H6" s="3">
-        <v>65</v>
-      </c>
-      <c r="I6" s="3">
-        <v>81</v>
-      </c>
-      <c r="J6" s="3">
-        <v>83</v>
-      </c>
-      <c r="K6" s="3">
-        <v>63</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>443</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1016,42 +1139,21 @@
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>201106</v>
-      </c>
-      <c r="F7" s="3">
-        <v>85</v>
-      </c>
-      <c r="G7" s="3">
-        <v>46</v>
-      </c>
-      <c r="H7" s="3">
-        <v>64</v>
-      </c>
-      <c r="I7" s="3">
-        <v>82</v>
-      </c>
-      <c r="J7" s="3">
-        <v>91</v>
-      </c>
-      <c r="K7" s="3">
-        <v>58</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1061,42 +1163,21 @@
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>201107</v>
-      </c>
-      <c r="F8" s="3">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3">
-        <v>59</v>
-      </c>
-      <c r="H8" s="3">
-        <v>61</v>
-      </c>
-      <c r="I8" s="3">
-        <v>75</v>
-      </c>
-      <c r="J8" s="3">
-        <v>64</v>
-      </c>
-      <c r="K8" s="3">
-        <v>75</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>399</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1106,42 +1187,21 @@
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>201108</v>
-      </c>
-      <c r="F9" s="3">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3">
-        <v>99</v>
-      </c>
-      <c r="H9" s="3">
-        <v>50</v>
-      </c>
-      <c r="I9" s="3">
-        <v>82</v>
-      </c>
-      <c r="J9" s="3">
-        <v>69</v>
-      </c>
-      <c r="K9" s="3">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>424</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1151,42 +1211,21 @@
     </row>
     <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>201109</v>
-      </c>
-      <c r="F10" s="3">
-        <v>91</v>
-      </c>
-      <c r="G10" s="3">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3">
-        <v>85</v>
-      </c>
-      <c r="I10" s="3">
-        <v>98</v>
-      </c>
-      <c r="J10" s="3">
-        <v>89</v>
-      </c>
-      <c r="K10" s="3">
-        <v>96</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>518</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1196,42 +1235,21 @@
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>201201</v>
-      </c>
-      <c r="F11" s="3">
-        <v>49</v>
-      </c>
-      <c r="G11" s="3">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3">
-        <v>93</v>
-      </c>
-      <c r="I11" s="3">
-        <v>46</v>
-      </c>
-      <c r="J11" s="3">
-        <v>90</v>
-      </c>
-      <c r="K11" s="3">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1241,42 +1259,21 @@
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>201202</v>
-      </c>
-      <c r="F12" s="3">
-        <v>89</v>
-      </c>
-      <c r="G12" s="3">
-        <v>46</v>
-      </c>
-      <c r="H12" s="3">
-        <v>69</v>
-      </c>
-      <c r="I12" s="3">
-        <v>59</v>
-      </c>
-      <c r="J12" s="3">
-        <v>94</v>
-      </c>
-      <c r="K12" s="3">
-        <v>51</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1286,42 +1283,21 @@
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>201203</v>
-      </c>
-      <c r="F13" s="3">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3">
-        <v>41</v>
-      </c>
-      <c r="H13" s="3">
-        <v>43</v>
-      </c>
-      <c r="I13" s="3">
-        <v>49</v>
-      </c>
-      <c r="J13" s="3">
-        <v>78</v>
-      </c>
-      <c r="K13" s="3">
-        <v>76</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1331,42 +1307,21 @@
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>201204</v>
-      </c>
-      <c r="F14" s="3">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3">
-        <v>92</v>
-      </c>
-      <c r="H14" s="3">
-        <v>58</v>
-      </c>
-      <c r="I14" s="3">
-        <v>47</v>
-      </c>
-      <c r="J14" s="3">
-        <v>67</v>
-      </c>
-      <c r="K14" s="3">
-        <v>69</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>404</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1376,42 +1331,21 @@
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>201205</v>
-      </c>
-      <c r="F15" s="3">
-        <v>66</v>
-      </c>
-      <c r="G15" s="3">
-        <v>70</v>
-      </c>
-      <c r="H15" s="3">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3">
-        <v>65</v>
-      </c>
-      <c r="J15" s="3">
-        <v>51</v>
-      </c>
-      <c r="K15" s="3">
-        <v>77</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>371</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1421,42 +1355,21 @@
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>201206</v>
-      </c>
-      <c r="F16" s="3">
-        <v>56</v>
-      </c>
-      <c r="G16" s="3">
-        <v>55</v>
-      </c>
-      <c r="H16" s="3">
-        <v>43</v>
-      </c>
-      <c r="I16" s="3">
-        <v>70</v>
-      </c>
-      <c r="J16" s="3">
-        <v>42</v>
-      </c>
-      <c r="K16" s="3">
-        <v>87</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>353</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1466,42 +1379,21 @@
     </row>
     <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>201207</v>
-      </c>
-      <c r="F17" s="3">
-        <v>99</v>
-      </c>
-      <c r="G17" s="3">
-        <v>57</v>
-      </c>
-      <c r="H17" s="3">
-        <v>88</v>
-      </c>
-      <c r="I17" s="3">
-        <v>51</v>
-      </c>
-      <c r="J17" s="3">
-        <v>94</v>
-      </c>
-      <c r="K17" s="3">
-        <v>87</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>476</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1511,42 +1403,21 @@
     </row>
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>201208</v>
-      </c>
-      <c r="F18" s="3">
-        <v>60</v>
-      </c>
-      <c r="G18" s="3">
-        <v>89</v>
-      </c>
-      <c r="H18" s="3">
-        <v>57</v>
-      </c>
-      <c r="I18" s="3">
-        <v>76</v>
-      </c>
-      <c r="J18" s="3">
-        <v>91</v>
-      </c>
-      <c r="K18" s="3">
-        <v>94</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>467</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1556,42 +1427,21 @@
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>201209</v>
-      </c>
-      <c r="F19" s="3">
-        <v>85</v>
-      </c>
-      <c r="G19" s="3">
-        <v>87</v>
-      </c>
-      <c r="H19" s="3">
-        <v>48</v>
-      </c>
-      <c r="I19" s="3">
-        <v>44</v>
-      </c>
-      <c r="J19" s="3">
-        <v>72</v>
-      </c>
-      <c r="K19" s="3">
-        <v>67</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>403</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>

--- a/test_1/students_scores.xlsx
+++ b/test_1/students_scores.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DaSanXia\PythonProgramming\Test\exp_1\test_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC29707-CD23-40B0-A81F-7E05999C3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A426641-B935-4C3C-AD27-79B083ABB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="1800" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王婷婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>许娟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +200,149 @@
   </si>
   <si>
     <t>大数据2班</t>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>物联网A班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网B班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>计科3班</t>
+  </si>
+  <si>
+    <t>计科3班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科4班</t>
+  </si>
+  <si>
+    <t>计科4班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,221 +681,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571705B3-7B1D-469A-A2F4-8154B324C286}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
         <v>13</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -767,221 +964,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A221A94F-2B0E-41D9-9867-BD1E9C192AE6}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>26</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
       </c>
       <c r="B9">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>35</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
       </c>
       <c r="B12">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>38</v>
-      </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
       </c>
       <c r="B15">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
-      </c>
-      <c r="B17">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
       </c>
       <c r="B18">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -992,16 +1246,286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E857-2586-4A2C-8182-E6162DAECD7A}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1016,6 +1540,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1025,7 +1552,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>69</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1049,7 +1579,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1073,7 +1606,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1091,13 +1627,16 @@
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1121,7 +1660,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1145,7 +1687,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1163,13 +1708,16 @@
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>38</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1187,13 +1735,16 @@
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>46</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1217,7 +1768,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1241,7 +1795,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1265,7 +1822,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1283,13 +1843,16 @@
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1313,7 +1876,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>86</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1331,13 +1897,16 @@
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1361,7 +1930,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1379,13 +1951,16 @@
     </row>
     <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1409,7 +1984,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1427,13 +2005,16 @@
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
